--- a/Estadísticas Regionales/Fechas.xlsx
+++ b/Estadísticas Regionales/Fechas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{041DA937-526C-4221-8352-943426659FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F744300-E99B-4F56-9814-88786CECFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5885762E-B507-44FA-B8D1-FD901D83A2A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>01 Jan 2014 00:00:00</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>01 Dec 2021 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Jan 2022 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -689,13 +692,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C03E8C-2B4E-49F3-8312-238CD239FB46}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:B109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
     <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
@@ -2251,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D97" si="4">+D67</f>
+        <f t="shared" ref="D79:D109" si="4">+D67</f>
         <v>6</v>
       </c>
       <c r="E79">
@@ -2603,7 +2608,7 @@
         <v>100</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" ref="B97" si="7">+D97&amp;"-"&amp;C97&amp;"-"&amp;E97</f>
+        <f t="shared" ref="B97:B109" si="7">+D97&amp;"-"&amp;C97&amp;"-"&amp;E97</f>
         <v>12-1-2021</v>
       </c>
       <c r="C97">
@@ -2616,6 +2621,234 @@
       <c r="E97">
         <f t="shared" si="6"/>
         <v>2021</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="7"/>
+        <v>1-1-2022</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="7"/>
+        <v>2-1-2022</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="7"/>
+        <v>3-1-2022</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="7"/>
+        <v>4-1-2022</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="7"/>
+        <v>5-1-2022</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="7"/>
+        <v>6-1-2022</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="7"/>
+        <v>7-1-2022</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="7"/>
+        <v>8-1-2022</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="7"/>
+        <v>9-1-2022</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="7"/>
+        <v>10-1-2022</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="7"/>
+        <v>11-1-2022</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="7"/>
+        <v>12-1-2022</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/Estadísticas Regionales/Fechas.xlsx
+++ b/Estadísticas Regionales/Fechas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Estadísticas Regionales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F744300-E99B-4F56-9814-88786CECFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43873F83-CA93-4483-A993-83041725B9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5885762E-B507-44FA-B8D1-FD901D83A2A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" xr2:uid="{5885762E-B507-44FA-B8D1-FD901D83A2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>01 Jan 2014 00:00:00</t>
   </si>
@@ -340,6 +340,39 @@
   </si>
   <si>
     <t>01 Jan 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Feb 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Mar 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Apr 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 May 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Jun 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Jul 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Aug 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Sep 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Oct 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Nov 2022 00:00:00</t>
+  </si>
+  <si>
+    <t>01 Dec 2022 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -694,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C03E8C-2B4E-49F3-8312-238CD239FB46}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,7 +2677,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="7"/>
@@ -2663,7 +2696,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="7"/>
@@ -2682,7 +2715,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="7"/>
@@ -2701,7 +2734,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="7"/>
@@ -2720,7 +2753,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="7"/>
@@ -2739,7 +2772,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="7"/>
@@ -2758,7 +2791,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="7"/>
@@ -2777,7 +2810,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="7"/>
@@ -2796,7 +2829,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="7"/>
@@ -2815,7 +2848,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="7"/>
@@ -2834,7 +2867,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="7"/>
